--- a/Code/Results/Cases/Case_5_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9955435077519087</v>
+        <v>1.053650188724247</v>
       </c>
       <c r="D2">
-        <v>1.012841159007496</v>
+        <v>1.050880821334305</v>
       </c>
       <c r="E2">
-        <v>1.007898869219199</v>
+        <v>1.059413228233382</v>
       </c>
       <c r="F2">
-        <v>1.010274849014586</v>
+        <v>1.068230967277935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039342332433908</v>
+        <v>1.037365202626547</v>
       </c>
       <c r="J2">
-        <v>1.017858333704911</v>
+        <v>1.058666419243568</v>
       </c>
       <c r="K2">
-        <v>1.024124448547239</v>
+        <v>1.053633869327472</v>
       </c>
       <c r="L2">
-        <v>1.019249246258022</v>
+        <v>1.062142800196143</v>
       </c>
       <c r="M2">
-        <v>1.021592871008517</v>
+        <v>1.07093670449366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004719312456724</v>
+        <v>1.055403096830601</v>
       </c>
       <c r="D3">
-        <v>1.019771880075304</v>
+        <v>1.052200904220148</v>
       </c>
       <c r="E3">
-        <v>1.016043797838086</v>
+        <v>1.061019939041431</v>
       </c>
       <c r="F3">
-        <v>1.019266919127542</v>
+        <v>1.070028090516584</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041840761473576</v>
+        <v>1.037738308848142</v>
       </c>
       <c r="J3">
-        <v>1.025082145840059</v>
+        <v>1.060066399894185</v>
       </c>
       <c r="K3">
-        <v>1.030157875137158</v>
+        <v>1.054765180772999</v>
       </c>
       <c r="L3">
-        <v>1.026475429723253</v>
+        <v>1.06356173162683</v>
       </c>
       <c r="M3">
-        <v>1.02965907130368</v>
+        <v>1.072547329010808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010444382798217</v>
+        <v>1.056534558412087</v>
       </c>
       <c r="D4">
-        <v>1.024097794682543</v>
+        <v>1.053052377789826</v>
       </c>
       <c r="E4">
-        <v>1.021132321617818</v>
+        <v>1.062057226333644</v>
       </c>
       <c r="F4">
-        <v>1.024887031272426</v>
+        <v>1.071188772994389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043385021465338</v>
+        <v>1.03797720051891</v>
       </c>
       <c r="J4">
-        <v>1.029584641663627</v>
+        <v>1.060969202151511</v>
       </c>
       <c r="K4">
-        <v>1.0339138263494</v>
+        <v>1.055493970113598</v>
       </c>
       <c r="L4">
-        <v>1.030982216701742</v>
+        <v>1.064477033107039</v>
       </c>
       <c r="M4">
-        <v>1.034694091179664</v>
+        <v>1.073586889217515</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012803838012201</v>
+        <v>1.057009572302049</v>
       </c>
       <c r="D5">
-        <v>1.025880837764627</v>
+        <v>1.053409698958797</v>
       </c>
       <c r="E5">
-        <v>1.023230917386141</v>
+        <v>1.062492749013974</v>
       </c>
       <c r="F5">
-        <v>1.027205461017118</v>
+        <v>1.071676216978874</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044017863818574</v>
+        <v>1.038077027817219</v>
       </c>
       <c r="J5">
-        <v>1.031439030434518</v>
+        <v>1.061348014806462</v>
       </c>
       <c r="K5">
-        <v>1.035459595686425</v>
+        <v>1.055799585778427</v>
       </c>
       <c r="L5">
-        <v>1.032839043010557</v>
+        <v>1.064861157119964</v>
       </c>
       <c r="M5">
-        <v>1.036769608623584</v>
+        <v>1.074023305725723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013197317256867</v>
+        <v>1.057089291382631</v>
       </c>
       <c r="D6">
-        <v>1.026178198572847</v>
+        <v>1.053469657614496</v>
       </c>
       <c r="E6">
-        <v>1.023580977673669</v>
+        <v>1.06256584312968</v>
       </c>
       <c r="F6">
-        <v>1.027592227295929</v>
+        <v>1.071758031649946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044123187443932</v>
+        <v>1.038093754018945</v>
       </c>
       <c r="J6">
-        <v>1.031748207537029</v>
+        <v>1.061411576916442</v>
       </c>
       <c r="K6">
-        <v>1.035717248616267</v>
+        <v>1.055850855266771</v>
       </c>
       <c r="L6">
-        <v>1.033148665828726</v>
+        <v>1.064925614354194</v>
       </c>
       <c r="M6">
-        <v>1.037115760379868</v>
+        <v>1.074096546312869</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010476091763513</v>
+        <v>1.056540908114905</v>
       </c>
       <c r="D7">
-        <v>1.024121756539204</v>
+        <v>1.053057154827065</v>
       </c>
       <c r="E7">
-        <v>1.021160519153185</v>
+        <v>1.062063047964242</v>
       </c>
       <c r="F7">
-        <v>1.02491818016724</v>
+        <v>1.071195288217289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043393540634225</v>
+        <v>1.037978536779535</v>
       </c>
       <c r="J7">
-        <v>1.029609567900884</v>
+        <v>1.060974266699099</v>
       </c>
       <c r="K7">
-        <v>1.033934608814772</v>
+        <v>1.055498056767319</v>
       </c>
       <c r="L7">
-        <v>1.031007173052704</v>
+        <v>1.064482168402531</v>
       </c>
       <c r="M7">
-        <v>1.034721982606979</v>
+        <v>1.073592723033375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986906723806825</v>
+        <v>1.054243178211906</v>
       </c>
       <c r="D8">
-        <v>1.015217838316633</v>
+        <v>1.051327516386071</v>
       </c>
       <c r="E8">
-        <v>1.01069097317361</v>
+        <v>1.05995672035259</v>
       </c>
       <c r="F8">
-        <v>1.013356883715161</v>
+        <v>1.068838772663169</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04020229181097</v>
+        <v>1.037491822301841</v>
       </c>
       <c r="J8">
-        <v>1.020336923742181</v>
+        <v>1.059140193805011</v>
       </c>
       <c r="K8">
-        <v>1.026195545568907</v>
+        <v>1.054016878895823</v>
       </c>
       <c r="L8">
-        <v>1.021728049903511</v>
+        <v>1.062622930227199</v>
       </c>
       <c r="M8">
-        <v>1.024358916778927</v>
+        <v>1.071481573259736</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9761193370820703</v>
+        <v>1.050172275822986</v>
       </c>
       <c r="D9">
-        <v>0.9981877534341242</v>
+        <v>1.048258476013771</v>
       </c>
       <c r="E9">
-        <v>0.9907009562710157</v>
+        <v>1.056226444579034</v>
       </c>
       <c r="F9">
-        <v>0.991299588728173</v>
+        <v>1.064668986434209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033974889830029</v>
+        <v>1.036614604654652</v>
       </c>
       <c r="J9">
-        <v>1.002544512171865</v>
+        <v>1.055884216794038</v>
       </c>
       <c r="K9">
-        <v>1.011310301662876</v>
+        <v>1.051381576857984</v>
       </c>
       <c r="L9">
-        <v>1.00394672748735</v>
+        <v>1.059324422739514</v>
       </c>
       <c r="M9">
-        <v>1.00453541908324</v>
+        <v>1.067740793578946</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9595658519220376</v>
+        <v>1.047442613310521</v>
       </c>
       <c r="D10">
-        <v>0.9857289796681965</v>
+        <v>1.046197558995674</v>
       </c>
       <c r="E10">
-        <v>0.9760932773734996</v>
+        <v>1.053726253064014</v>
       </c>
       <c r="F10">
-        <v>0.9751898482540564</v>
+        <v>1.061876601015297</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029335876618204</v>
+        <v>1.03601640630981</v>
       </c>
       <c r="J10">
-        <v>0.9894809287527265</v>
+        <v>1.053696618266694</v>
       </c>
       <c r="K10">
-        <v>1.000360772705505</v>
+        <v>1.049607114222979</v>
       </c>
       <c r="L10">
-        <v>0.9909080206742088</v>
+        <v>1.057109690804466</v>
       </c>
       <c r="M10">
-        <v>0.9900219875304546</v>
+        <v>1.06523222365636</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9519588040070125</v>
+        <v>1.046256700794697</v>
       </c>
       <c r="D11">
-        <v>0.9800151508015227</v>
+        <v>1.045301484091683</v>
       </c>
       <c r="E11">
-        <v>0.9693959217566556</v>
+        <v>1.052640299790608</v>
       </c>
       <c r="F11">
-        <v>0.9678049811607287</v>
+        <v>1.060664295946991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027188897889773</v>
+        <v>1.035754152347266</v>
       </c>
       <c r="J11">
-        <v>0.9834763324575526</v>
+        <v>1.052745178605022</v>
       </c>
       <c r="K11">
-        <v>0.9953240564088139</v>
+        <v>1.048834444573803</v>
       </c>
       <c r="L11">
-        <v>0.9849190228589483</v>
+        <v>1.056146791689281</v>
       </c>
       <c r="M11">
-        <v>0.9833607066180746</v>
+        <v>1.064142310185645</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9490586140765893</v>
+        <v>1.045815588513748</v>
       </c>
       <c r="D12">
-        <v>0.9778389071820821</v>
+        <v>1.044968075995465</v>
       </c>
       <c r="E12">
-        <v>0.966845186704972</v>
+        <v>1.052236409042712</v>
       </c>
       <c r="F12">
-        <v>0.9649924849518906</v>
+        <v>1.06021349622734</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026368283032553</v>
+        <v>1.035656249671517</v>
       </c>
       <c r="J12">
-        <v>0.9811871100193374</v>
+        <v>1.05239112690615</v>
       </c>
       <c r="K12">
-        <v>0.9934033612449582</v>
+        <v>1.048546780585649</v>
       </c>
       <c r="L12">
-        <v>0.9826363926441074</v>
+        <v>1.05578852695394</v>
       </c>
       <c r="M12">
-        <v>0.9808225770337557</v>
+        <v>1.063736898008373</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9496842460819364</v>
+        <v>1.04591023656188</v>
       </c>
       <c r="D13">
-        <v>0.978308264009533</v>
+        <v>1.045039618977315</v>
       </c>
       <c r="E13">
-        <v>0.9673953097634119</v>
+        <v>1.052323068731135</v>
       </c>
       <c r="F13">
-        <v>0.9655990605715578</v>
+        <v>1.060310217006289</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026545397126855</v>
+        <v>1.035677272370015</v>
       </c>
       <c r="J13">
-        <v>0.9816809379405225</v>
+        <v>1.052467101601693</v>
       </c>
       <c r="K13">
-        <v>0.9938177104259805</v>
+        <v>1.048608515546876</v>
       </c>
       <c r="L13">
-        <v>0.9831287690451493</v>
+        <v>1.055865403390602</v>
       </c>
       <c r="M13">
-        <v>0.9813700336552994</v>
+        <v>1.063823886339172</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9517206506241309</v>
+        <v>1.046220250896827</v>
       </c>
       <c r="D14">
-        <v>0.9798363990539202</v>
+        <v>1.04527393609288</v>
       </c>
       <c r="E14">
-        <v>0.9691864091652652</v>
+        <v>1.052606924740112</v>
       </c>
       <c r="F14">
-        <v>0.9675739669098646</v>
+        <v>1.0606270429133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027121552688568</v>
+        <v>1.03574606970163</v>
       </c>
       <c r="J14">
-        <v>0.9832883474713299</v>
+        <v>1.052715925815531</v>
       </c>
       <c r="K14">
-        <v>0.9951663428245581</v>
+        <v>1.048810679712389</v>
       </c>
       <c r="L14">
-        <v>0.9847315660258824</v>
+        <v>1.05611718976106</v>
       </c>
       <c r="M14">
-        <v>0.9831522527478019</v>
+        <v>1.064108810405182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9529651775579421</v>
+        <v>1.046411179378482</v>
       </c>
       <c r="D15">
-        <v>0.9807705987073324</v>
+        <v>1.045418231228064</v>
       </c>
       <c r="E15">
-        <v>0.9702813755255849</v>
+        <v>1.052781748510856</v>
       </c>
       <c r="F15">
-        <v>0.9687813091992101</v>
+        <v>1.060822183612774</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027473398033786</v>
+        <v>1.035788392956567</v>
       </c>
       <c r="J15">
-        <v>0.9842707103219333</v>
+        <v>1.052869148770916</v>
       </c>
       <c r="K15">
-        <v>0.9959904963694672</v>
+        <v>1.048935151907833</v>
       </c>
       <c r="L15">
-        <v>0.985711195156568</v>
+        <v>1.056272243565721</v>
       </c>
       <c r="M15">
-        <v>0.9842416396106224</v>
+        <v>1.064284285542455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9600607534234257</v>
+        <v>1.047521233648695</v>
       </c>
       <c r="D16">
-        <v>0.986100982388724</v>
+        <v>1.046256949852759</v>
       </c>
       <c r="E16">
-        <v>0.9765293389603511</v>
+        <v>1.053798252227901</v>
       </c>
       <c r="F16">
-        <v>0.9756706898907156</v>
+        <v>1.061956989158399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029475259763691</v>
+        <v>1.036033742796249</v>
       </c>
       <c r="J16">
-        <v>0.9898715688280659</v>
+        <v>1.053759672574338</v>
       </c>
       <c r="K16">
-        <v>1.000688375086301</v>
+        <v>1.049658301841867</v>
       </c>
       <c r="L16">
-        <v>0.9912977331244761</v>
+        <v>1.05717351173939</v>
       </c>
       <c r="M16">
-        <v>0.990455548527576</v>
+        <v>1.065304478600857</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9643884238605585</v>
+        <v>1.048216471001872</v>
       </c>
       <c r="D17">
-        <v>0.9893552958252946</v>
+        <v>1.046782060759585</v>
       </c>
       <c r="E17">
-        <v>0.9803442493296546</v>
+        <v>1.054434969365424</v>
       </c>
       <c r="F17">
-        <v>0.9798774814377514</v>
+        <v>1.062667958150532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030692422379637</v>
+        <v>1.036186776250515</v>
       </c>
       <c r="J17">
-        <v>0.9932874009706355</v>
+        <v>1.054317141387843</v>
       </c>
       <c r="K17">
-        <v>1.003552575495968</v>
+        <v>1.050110751056782</v>
       </c>
       <c r="L17">
-        <v>0.9947059216916251</v>
+        <v>1.057737797732539</v>
       </c>
       <c r="M17">
-        <v>0.9942477766340918</v>
+        <v>1.065943420640554</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9668709536487932</v>
+        <v>1.048621611236734</v>
       </c>
       <c r="D18">
-        <v>0.9912231457952316</v>
+        <v>1.047087994441821</v>
       </c>
       <c r="E18">
-        <v>0.9825340604793272</v>
+        <v>1.05480603315569</v>
       </c>
       <c r="F18">
-        <v>0.9822923521196911</v>
+        <v>1.063082348328344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031389212996375</v>
+        <v>1.0362757267273</v>
       </c>
       <c r="J18">
-        <v>0.9952467244654977</v>
+        <v>1.054641899732523</v>
       </c>
       <c r="K18">
-        <v>1.005195118737355</v>
+        <v>1.050374241432264</v>
       </c>
       <c r="L18">
-        <v>0.9966612468755282</v>
+        <v>1.058066560352872</v>
       </c>
       <c r="M18">
-        <v>0.9964239072041231</v>
+        <v>1.066315750152157</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9677105904624209</v>
+        <v>1.04875968968329</v>
       </c>
       <c r="D19">
-        <v>0.9918550520481686</v>
+        <v>1.047192250145544</v>
       </c>
       <c r="E19">
-        <v>0.9832749275538216</v>
+        <v>1.054932502075423</v>
       </c>
       <c r="F19">
-        <v>0.9831093842142881</v>
+        <v>1.063223593287069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031624633407119</v>
+        <v>1.036306003869001</v>
       </c>
       <c r="J19">
-        <v>0.9959093737971918</v>
+        <v>1.05475256587966</v>
       </c>
       <c r="K19">
-        <v>1.005750567467405</v>
+        <v>1.050464014700607</v>
       </c>
       <c r="L19">
-        <v>0.9973226089379889</v>
+        <v>1.05817859659132</v>
       </c>
       <c r="M19">
-        <v>0.9971600353907369</v>
+        <v>1.066442645233359</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9639284789115615</v>
+        <v>1.048141918043778</v>
       </c>
       <c r="D20">
-        <v>0.989009316061839</v>
+        <v>1.046725758099458</v>
       </c>
       <c r="E20">
-        <v>0.9799386505731227</v>
+        <v>1.0543666891163</v>
       </c>
       <c r="F20">
-        <v>0.979430206827429</v>
+        <v>1.062591709682929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030563209231686</v>
+        <v>1.036170389446463</v>
       </c>
       <c r="J20">
-        <v>0.9929243791369474</v>
+        <v>1.054257372128956</v>
       </c>
       <c r="K20">
-        <v>1.003248216222413</v>
+        <v>1.050062250609575</v>
       </c>
       <c r="L20">
-        <v>0.9943436718747686</v>
+        <v>1.057677294165696</v>
       </c>
       <c r="M20">
-        <v>0.9938446585983621</v>
+        <v>1.065874904996826</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9511231166060284</v>
+        <v>1.04612897643023</v>
       </c>
       <c r="D21">
-        <v>0.9793879416924693</v>
+        <v>1.045204951267176</v>
       </c>
       <c r="E21">
-        <v>0.9686607791585969</v>
+        <v>1.052523350682128</v>
       </c>
       <c r="F21">
-        <v>0.9669943940310272</v>
+        <v>1.06053375940247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026952548917236</v>
+        <v>1.035725824162322</v>
       </c>
       <c r="J21">
-        <v>0.9828166888364712</v>
+        <v>1.052642671198058</v>
       </c>
       <c r="K21">
-        <v>0.9947706286320183</v>
+        <v>1.048751165720505</v>
       </c>
       <c r="L21">
-        <v>0.9842612429717901</v>
+        <v>1.056043061660886</v>
       </c>
       <c r="M21">
-        <v>0.9826292604563441</v>
+        <v>1.064024923227439</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9426347624658186</v>
+        <v>1.044859812710288</v>
       </c>
       <c r="D22">
-        <v>0.9730231065483776</v>
+        <v>1.044245478788726</v>
       </c>
       <c r="E22">
-        <v>0.96120063218248</v>
+        <v>1.051361358055322</v>
       </c>
       <c r="F22">
-        <v>0.9587687122970264</v>
+        <v>1.059236968045566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024547041038333</v>
+        <v>1.035443471731789</v>
       </c>
       <c r="J22">
-        <v>0.9761168874204</v>
+        <v>1.051623707668534</v>
       </c>
       <c r="K22">
-        <v>0.989148616994845</v>
+        <v>1.047923009711609</v>
       </c>
       <c r="L22">
-        <v>0.9775819912724635</v>
+        <v>1.055012069630888</v>
       </c>
       <c r="M22">
-        <v>0.975203741597318</v>
+        <v>1.062858461608526</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.947179354112215</v>
+        <v>1.045532962740023</v>
       </c>
       <c r="D23">
-        <v>0.9764294160410578</v>
+        <v>1.044754428490688</v>
       </c>
       <c r="E23">
-        <v>0.9651931515664514</v>
+        <v>1.051977643102263</v>
       </c>
       <c r="F23">
-        <v>0.9631709253175672</v>
+        <v>1.059924700154893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025835983764643</v>
+        <v>1.03559342251948</v>
       </c>
       <c r="J23">
-        <v>0.9797037849560508</v>
+        <v>1.052164238581579</v>
       </c>
       <c r="K23">
-        <v>0.9921587084030052</v>
+        <v>1.048362397381087</v>
       </c>
       <c r="L23">
-        <v>0.981157523950587</v>
+        <v>1.055558953206478</v>
       </c>
       <c r="M23">
-        <v>0.9791783777155033</v>
+        <v>1.063477143609545</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9641364365567451</v>
+        <v>1.048175606490227</v>
       </c>
       <c r="D24">
-        <v>0.9891657427375117</v>
+        <v>1.046751199943749</v>
       </c>
       <c r="E24">
-        <v>0.9801220319484115</v>
+        <v>1.054397543018279</v>
       </c>
       <c r="F24">
-        <v>0.9796324305398441</v>
+        <v>1.062626164028713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030621635585969</v>
+        <v>1.036177794899875</v>
       </c>
       <c r="J24">
-        <v>0.9930885148042252</v>
+        <v>1.054284380531817</v>
       </c>
       <c r="K24">
-        <v>1.003385829505265</v>
+        <v>1.05008416715806</v>
       </c>
       <c r="L24">
-        <v>0.9945074572844681</v>
+        <v>1.057704634284414</v>
       </c>
       <c r="M24">
-        <v>0.9940269204285485</v>
+        <v>1.065905865362428</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9821957830202159</v>
+        <v>1.051227404975</v>
       </c>
       <c r="D25">
-        <v>1.002768433673567</v>
+        <v>1.049054473723362</v>
       </c>
       <c r="E25">
-        <v>0.9960744559122455</v>
+        <v>1.057193102788796</v>
       </c>
       <c r="F25">
-        <v>0.9972270917789433</v>
+        <v>1.065749118204259</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035664031266905</v>
+        <v>1.036843728702271</v>
       </c>
       <c r="J25">
-        <v>1.007337553917321</v>
+        <v>1.056728897247428</v>
       </c>
       <c r="K25">
-        <v>1.015323924755278</v>
+        <v>1.052065922405376</v>
       </c>
       <c r="L25">
-        <v>1.008734018095534</v>
+        <v>1.060179883316742</v>
       </c>
       <c r="M25">
-        <v>1.009868606630478</v>
+        <v>1.06871040782612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053650188724247</v>
+        <v>0.9955435077519063</v>
       </c>
       <c r="D2">
-        <v>1.050880821334305</v>
+        <v>1.012841159007495</v>
       </c>
       <c r="E2">
-        <v>1.059413228233382</v>
+        <v>1.007898869219197</v>
       </c>
       <c r="F2">
-        <v>1.068230967277935</v>
+        <v>1.010274849014584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037365202626547</v>
+        <v>1.039342332433907</v>
       </c>
       <c r="J2">
-        <v>1.058666419243568</v>
+        <v>1.017858333704909</v>
       </c>
       <c r="K2">
-        <v>1.053633869327472</v>
+        <v>1.024124448547237</v>
       </c>
       <c r="L2">
-        <v>1.062142800196143</v>
+        <v>1.019249246258019</v>
       </c>
       <c r="M2">
-        <v>1.07093670449366</v>
+        <v>1.021592871008515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055403096830601</v>
+        <v>1.004719312456722</v>
       </c>
       <c r="D3">
-        <v>1.052200904220148</v>
+        <v>1.019771880075302</v>
       </c>
       <c r="E3">
-        <v>1.061019939041431</v>
+        <v>1.016043797838084</v>
       </c>
       <c r="F3">
-        <v>1.070028090516584</v>
+        <v>1.019266919127539</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037738308848142</v>
+        <v>1.041840761473575</v>
       </c>
       <c r="J3">
-        <v>1.060066399894185</v>
+        <v>1.025082145840056</v>
       </c>
       <c r="K3">
-        <v>1.054765180772999</v>
+        <v>1.030157875137156</v>
       </c>
       <c r="L3">
-        <v>1.06356173162683</v>
+        <v>1.026475429723251</v>
       </c>
       <c r="M3">
-        <v>1.072547329010808</v>
+        <v>1.029659071303678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056534558412087</v>
+        <v>1.010444382798218</v>
       </c>
       <c r="D4">
-        <v>1.053052377789826</v>
+        <v>1.024097794682544</v>
       </c>
       <c r="E4">
-        <v>1.062057226333644</v>
+        <v>1.021132321617819</v>
       </c>
       <c r="F4">
-        <v>1.071188772994389</v>
+        <v>1.024887031272427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03797720051891</v>
+        <v>1.043385021465338</v>
       </c>
       <c r="J4">
-        <v>1.060969202151511</v>
+        <v>1.029584641663628</v>
       </c>
       <c r="K4">
-        <v>1.055493970113598</v>
+        <v>1.033913826349401</v>
       </c>
       <c r="L4">
-        <v>1.064477033107039</v>
+        <v>1.030982216701743</v>
       </c>
       <c r="M4">
-        <v>1.073586889217515</v>
+        <v>1.034694091179665</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057009572302049</v>
+        <v>1.012803838012203</v>
       </c>
       <c r="D5">
-        <v>1.053409698958797</v>
+        <v>1.025880837764629</v>
       </c>
       <c r="E5">
-        <v>1.062492749013974</v>
+        <v>1.023230917386142</v>
       </c>
       <c r="F5">
-        <v>1.071676216978874</v>
+        <v>1.02720546101712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038077027817219</v>
+        <v>1.044017863818575</v>
       </c>
       <c r="J5">
-        <v>1.061348014806462</v>
+        <v>1.03143903043452</v>
       </c>
       <c r="K5">
-        <v>1.055799585778427</v>
+        <v>1.035459595686427</v>
       </c>
       <c r="L5">
-        <v>1.064861157119964</v>
+        <v>1.032839043010558</v>
       </c>
       <c r="M5">
-        <v>1.074023305725723</v>
+        <v>1.036769608623586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057089291382631</v>
+        <v>1.013197317256865</v>
       </c>
       <c r="D6">
-        <v>1.053469657614496</v>
+        <v>1.026178198572846</v>
       </c>
       <c r="E6">
-        <v>1.06256584312968</v>
+        <v>1.023580977673667</v>
       </c>
       <c r="F6">
-        <v>1.071758031649946</v>
+        <v>1.027592227295927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038093754018945</v>
+        <v>1.044123187443932</v>
       </c>
       <c r="J6">
-        <v>1.061411576916442</v>
+        <v>1.031748207537028</v>
       </c>
       <c r="K6">
-        <v>1.055850855266771</v>
+        <v>1.035717248616266</v>
       </c>
       <c r="L6">
-        <v>1.064925614354194</v>
+        <v>1.033148665828724</v>
       </c>
       <c r="M6">
-        <v>1.074096546312869</v>
+        <v>1.037115760379866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056540908114905</v>
+        <v>1.010476091763513</v>
       </c>
       <c r="D7">
-        <v>1.053057154827065</v>
+        <v>1.024121756539204</v>
       </c>
       <c r="E7">
-        <v>1.062063047964242</v>
+        <v>1.021160519153186</v>
       </c>
       <c r="F7">
-        <v>1.071195288217289</v>
+        <v>1.02491818016724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037978536779535</v>
+        <v>1.043393540634225</v>
       </c>
       <c r="J7">
-        <v>1.060974266699099</v>
+        <v>1.029609567900884</v>
       </c>
       <c r="K7">
-        <v>1.055498056767319</v>
+        <v>1.033934608814773</v>
       </c>
       <c r="L7">
-        <v>1.064482168402531</v>
+        <v>1.031007173052705</v>
       </c>
       <c r="M7">
-        <v>1.073592723033375</v>
+        <v>1.03472198260698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054243178211906</v>
+        <v>0.998690672380686</v>
       </c>
       <c r="D8">
-        <v>1.051327516386071</v>
+        <v>1.015217838316636</v>
       </c>
       <c r="E8">
-        <v>1.05995672035259</v>
+        <v>1.010690973173613</v>
       </c>
       <c r="F8">
-        <v>1.068838772663169</v>
+        <v>1.013356883715164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037491822301841</v>
+        <v>1.040202291810971</v>
       </c>
       <c r="J8">
-        <v>1.059140193805011</v>
+        <v>1.020336923742184</v>
       </c>
       <c r="K8">
-        <v>1.054016878895823</v>
+        <v>1.026195545568909</v>
       </c>
       <c r="L8">
-        <v>1.062622930227199</v>
+        <v>1.021728049903514</v>
       </c>
       <c r="M8">
-        <v>1.071481573259736</v>
+        <v>1.02435891677893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050172275822986</v>
+        <v>0.9761193370820709</v>
       </c>
       <c r="D9">
-        <v>1.048258476013771</v>
+        <v>0.9981877534341246</v>
       </c>
       <c r="E9">
-        <v>1.056226444579034</v>
+        <v>0.990700956271016</v>
       </c>
       <c r="F9">
-        <v>1.064668986434209</v>
+        <v>0.9912995887281737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036614604654652</v>
+        <v>1.03397488983003</v>
       </c>
       <c r="J9">
-        <v>1.055884216794038</v>
+        <v>1.002544512171866</v>
       </c>
       <c r="K9">
-        <v>1.051381576857984</v>
+        <v>1.011310301662876</v>
       </c>
       <c r="L9">
-        <v>1.059324422739514</v>
+        <v>1.003946727487351</v>
       </c>
       <c r="M9">
-        <v>1.067740793578946</v>
+        <v>1.00453541908324</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047442613310521</v>
+        <v>0.9595658519220399</v>
       </c>
       <c r="D10">
-        <v>1.046197558995674</v>
+        <v>0.9857289796681985</v>
       </c>
       <c r="E10">
-        <v>1.053726253064014</v>
+        <v>0.9760932773735016</v>
       </c>
       <c r="F10">
-        <v>1.061876601015297</v>
+        <v>0.9751898482540587</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03601640630981</v>
+        <v>1.029335876618205</v>
       </c>
       <c r="J10">
-        <v>1.053696618266694</v>
+        <v>0.9894809287527289</v>
       </c>
       <c r="K10">
-        <v>1.049607114222979</v>
+        <v>1.000360772705507</v>
       </c>
       <c r="L10">
-        <v>1.057109690804466</v>
+        <v>0.9909080206742109</v>
       </c>
       <c r="M10">
-        <v>1.06523222365636</v>
+        <v>0.990021987530457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046256700794697</v>
+        <v>0.9519588040070119</v>
       </c>
       <c r="D11">
-        <v>1.045301484091683</v>
+        <v>0.9800151508015224</v>
       </c>
       <c r="E11">
-        <v>1.052640299790608</v>
+        <v>0.9693959217566552</v>
       </c>
       <c r="F11">
-        <v>1.060664295946991</v>
+        <v>0.9678049811607282</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035754152347266</v>
+        <v>1.027188897889773</v>
       </c>
       <c r="J11">
-        <v>1.052745178605022</v>
+        <v>0.9834763324575522</v>
       </c>
       <c r="K11">
-        <v>1.048834444573803</v>
+        <v>0.9953240564088134</v>
       </c>
       <c r="L11">
-        <v>1.056146791689281</v>
+        <v>0.9849190228589478</v>
       </c>
       <c r="M11">
-        <v>1.064142310185645</v>
+        <v>0.9833607066180744</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045815588513748</v>
+        <v>0.9490586140765889</v>
       </c>
       <c r="D12">
-        <v>1.044968075995465</v>
+        <v>0.9778389071820814</v>
       </c>
       <c r="E12">
-        <v>1.052236409042712</v>
+        <v>0.9668451867049718</v>
       </c>
       <c r="F12">
-        <v>1.06021349622734</v>
+        <v>0.9649924849518903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035656249671517</v>
+        <v>1.026368283032553</v>
       </c>
       <c r="J12">
-        <v>1.05239112690615</v>
+        <v>0.981187110019337</v>
       </c>
       <c r="K12">
-        <v>1.048546780585649</v>
+        <v>0.9934033612449578</v>
       </c>
       <c r="L12">
-        <v>1.05578852695394</v>
+        <v>0.9826363926441073</v>
       </c>
       <c r="M12">
-        <v>1.063736898008373</v>
+        <v>0.9808225770337554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04591023656188</v>
+        <v>0.9496842460819352</v>
       </c>
       <c r="D13">
-        <v>1.045039618977315</v>
+        <v>0.9783082640095323</v>
       </c>
       <c r="E13">
-        <v>1.052323068731135</v>
+        <v>0.9673953097634104</v>
       </c>
       <c r="F13">
-        <v>1.060310217006289</v>
+        <v>0.9655990605715561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035677272370015</v>
+        <v>1.026545397126855</v>
       </c>
       <c r="J13">
-        <v>1.052467101601693</v>
+        <v>0.9816809379405214</v>
       </c>
       <c r="K13">
-        <v>1.048608515546876</v>
+        <v>0.99381771042598</v>
       </c>
       <c r="L13">
-        <v>1.055865403390602</v>
+        <v>0.9831287690451481</v>
       </c>
       <c r="M13">
-        <v>1.063823886339172</v>
+        <v>0.981370033655298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046220250896827</v>
+        <v>0.9517206506241288</v>
       </c>
       <c r="D14">
-        <v>1.04527393609288</v>
+        <v>0.9798363990539183</v>
       </c>
       <c r="E14">
-        <v>1.052606924740112</v>
+        <v>0.9691864091652633</v>
       </c>
       <c r="F14">
-        <v>1.0606270429133</v>
+        <v>0.9675739669098625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03574606970163</v>
+        <v>1.027121552688567</v>
       </c>
       <c r="J14">
-        <v>1.052715925815531</v>
+        <v>0.983288347471328</v>
       </c>
       <c r="K14">
-        <v>1.048810679712389</v>
+        <v>0.9951663428245563</v>
       </c>
       <c r="L14">
-        <v>1.05611718976106</v>
+        <v>0.9847315660258806</v>
       </c>
       <c r="M14">
-        <v>1.064108810405182</v>
+        <v>0.9831522527477998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046411179378482</v>
+        <v>0.9529651775579417</v>
       </c>
       <c r="D15">
-        <v>1.045418231228064</v>
+        <v>0.9807705987073319</v>
       </c>
       <c r="E15">
-        <v>1.052781748510856</v>
+        <v>0.9702813755255847</v>
       </c>
       <c r="F15">
-        <v>1.060822183612774</v>
+        <v>0.9687813091992103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035788392956567</v>
+        <v>1.027473398033786</v>
       </c>
       <c r="J15">
-        <v>1.052869148770916</v>
+        <v>0.9842707103219328</v>
       </c>
       <c r="K15">
-        <v>1.048935151907833</v>
+        <v>0.9959904963694667</v>
       </c>
       <c r="L15">
-        <v>1.056272243565721</v>
+        <v>0.985711195156568</v>
       </c>
       <c r="M15">
-        <v>1.064284285542455</v>
+        <v>0.9842416396106225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047521233648695</v>
+        <v>0.9600607534234248</v>
       </c>
       <c r="D16">
-        <v>1.046256949852759</v>
+        <v>0.9861009823887232</v>
       </c>
       <c r="E16">
-        <v>1.053798252227901</v>
+        <v>0.9765293389603501</v>
       </c>
       <c r="F16">
-        <v>1.061956989158399</v>
+        <v>0.9756706898907153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036033742796249</v>
+        <v>1.029475259763691</v>
       </c>
       <c r="J16">
-        <v>1.053759672574338</v>
+        <v>0.9898715688280652</v>
       </c>
       <c r="K16">
-        <v>1.049658301841867</v>
+        <v>1.0006883750863</v>
       </c>
       <c r="L16">
-        <v>1.05717351173939</v>
+        <v>0.9912977331244752</v>
       </c>
       <c r="M16">
-        <v>1.065304478600857</v>
+        <v>0.9904555485275756</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048216471001872</v>
+        <v>0.9643884238605585</v>
       </c>
       <c r="D17">
-        <v>1.046782060759585</v>
+        <v>0.9893552958252947</v>
       </c>
       <c r="E17">
-        <v>1.054434969365424</v>
+        <v>0.9803442493296546</v>
       </c>
       <c r="F17">
-        <v>1.062667958150532</v>
+        <v>0.9798774814377513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036186776250515</v>
+        <v>1.030692422379637</v>
       </c>
       <c r="J17">
-        <v>1.054317141387843</v>
+        <v>0.9932874009706358</v>
       </c>
       <c r="K17">
-        <v>1.050110751056782</v>
+        <v>1.003552575495968</v>
       </c>
       <c r="L17">
-        <v>1.057737797732539</v>
+        <v>0.9947059216916251</v>
       </c>
       <c r="M17">
-        <v>1.065943420640554</v>
+        <v>0.9942477766340916</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048621611236734</v>
+        <v>0.9668709536487922</v>
       </c>
       <c r="D18">
-        <v>1.047087994441821</v>
+        <v>0.9912231457952307</v>
       </c>
       <c r="E18">
-        <v>1.05480603315569</v>
+        <v>0.9825340604793261</v>
       </c>
       <c r="F18">
-        <v>1.063082348328344</v>
+        <v>0.9822923521196903</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0362757267273</v>
+        <v>1.031389212996375</v>
       </c>
       <c r="J18">
-        <v>1.054641899732523</v>
+        <v>0.9952467244654964</v>
       </c>
       <c r="K18">
-        <v>1.050374241432264</v>
+        <v>1.005195118737354</v>
       </c>
       <c r="L18">
-        <v>1.058066560352872</v>
+        <v>0.996661246875527</v>
       </c>
       <c r="M18">
-        <v>1.066315750152157</v>
+        <v>0.9964239072041223</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04875968968329</v>
+        <v>0.9677105904624193</v>
       </c>
       <c r="D19">
-        <v>1.047192250145544</v>
+        <v>0.9918550520481678</v>
       </c>
       <c r="E19">
-        <v>1.054932502075423</v>
+        <v>0.9832749275538202</v>
       </c>
       <c r="F19">
-        <v>1.063223593287069</v>
+        <v>0.983109384214287</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036306003869001</v>
+        <v>1.031624633407118</v>
       </c>
       <c r="J19">
-        <v>1.05475256587966</v>
+        <v>0.9959093737971905</v>
       </c>
       <c r="K19">
-        <v>1.050464014700607</v>
+        <v>1.005750567467404</v>
       </c>
       <c r="L19">
-        <v>1.05817859659132</v>
+        <v>0.9973226089379875</v>
       </c>
       <c r="M19">
-        <v>1.066442645233359</v>
+        <v>0.9971600353907357</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048141918043778</v>
+        <v>0.9639284789115616</v>
       </c>
       <c r="D20">
-        <v>1.046725758099458</v>
+        <v>0.9890093160618395</v>
       </c>
       <c r="E20">
-        <v>1.0543666891163</v>
+        <v>0.9799386505731229</v>
       </c>
       <c r="F20">
-        <v>1.062591709682929</v>
+        <v>0.9794302068274292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036170389446463</v>
+        <v>1.030563209231686</v>
       </c>
       <c r="J20">
-        <v>1.054257372128956</v>
+        <v>0.9929243791369479</v>
       </c>
       <c r="K20">
-        <v>1.050062250609575</v>
+        <v>1.003248216222413</v>
       </c>
       <c r="L20">
-        <v>1.057677294165696</v>
+        <v>0.994343671874769</v>
       </c>
       <c r="M20">
-        <v>1.065874904996826</v>
+        <v>0.9938446585983622</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04612897643023</v>
+        <v>0.9511231166060319</v>
       </c>
       <c r="D21">
-        <v>1.045204951267176</v>
+        <v>0.9793879416924722</v>
       </c>
       <c r="E21">
-        <v>1.052523350682128</v>
+        <v>0.9686607791586007</v>
       </c>
       <c r="F21">
-        <v>1.06053375940247</v>
+        <v>0.966994394031031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035725824162322</v>
+        <v>1.026952548917238</v>
       </c>
       <c r="J21">
-        <v>1.052642671198058</v>
+        <v>0.9828166888364748</v>
       </c>
       <c r="K21">
-        <v>1.048751165720505</v>
+        <v>0.9947706286320211</v>
       </c>
       <c r="L21">
-        <v>1.056043061660886</v>
+        <v>0.9842612429717938</v>
       </c>
       <c r="M21">
-        <v>1.064024923227439</v>
+        <v>0.9826292604563481</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044859812710288</v>
+        <v>0.9426347624658149</v>
       </c>
       <c r="D22">
-        <v>1.044245478788726</v>
+        <v>0.9730231065483749</v>
       </c>
       <c r="E22">
-        <v>1.051361358055322</v>
+        <v>0.9612006321824763</v>
       </c>
       <c r="F22">
-        <v>1.059236968045566</v>
+        <v>0.9587687122970228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035443471731789</v>
+        <v>1.024547041038332</v>
       </c>
       <c r="J22">
-        <v>1.051623707668534</v>
+        <v>0.9761168874203967</v>
       </c>
       <c r="K22">
-        <v>1.047923009711609</v>
+        <v>0.9891486169948422</v>
       </c>
       <c r="L22">
-        <v>1.055012069630888</v>
+        <v>0.9775819912724598</v>
       </c>
       <c r="M22">
-        <v>1.062858461608526</v>
+        <v>0.9752037415973145</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045532962740023</v>
+        <v>0.947179354112213</v>
       </c>
       <c r="D23">
-        <v>1.044754428490688</v>
+        <v>0.976429416041056</v>
       </c>
       <c r="E23">
-        <v>1.051977643102263</v>
+        <v>0.9651931515664495</v>
       </c>
       <c r="F23">
-        <v>1.059924700154893</v>
+        <v>0.9631709253175652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03559342251948</v>
+        <v>1.025835983764643</v>
       </c>
       <c r="J23">
-        <v>1.052164238581579</v>
+        <v>0.9797037849560488</v>
       </c>
       <c r="K23">
-        <v>1.048362397381087</v>
+        <v>0.9921587084030036</v>
       </c>
       <c r="L23">
-        <v>1.055558953206478</v>
+        <v>0.9811575239505848</v>
       </c>
       <c r="M23">
-        <v>1.063477143609545</v>
+        <v>0.9791783777155011</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048175606490227</v>
+        <v>0.9641364365567436</v>
       </c>
       <c r="D24">
-        <v>1.046751199943749</v>
+        <v>0.9891657427375105</v>
       </c>
       <c r="E24">
-        <v>1.054397543018279</v>
+        <v>0.9801220319484101</v>
       </c>
       <c r="F24">
-        <v>1.062626164028713</v>
+        <v>0.9796324305398423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036177794899875</v>
+        <v>1.030621635585968</v>
       </c>
       <c r="J24">
-        <v>1.054284380531817</v>
+        <v>0.9930885148042241</v>
       </c>
       <c r="K24">
-        <v>1.05008416715806</v>
+        <v>1.003385829505264</v>
       </c>
       <c r="L24">
-        <v>1.057704634284414</v>
+        <v>0.9945074572844667</v>
       </c>
       <c r="M24">
-        <v>1.065905865362428</v>
+        <v>0.994026920428547</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051227404975</v>
+        <v>0.9821957830202156</v>
       </c>
       <c r="D25">
-        <v>1.049054473723362</v>
+        <v>1.002768433673567</v>
       </c>
       <c r="E25">
-        <v>1.057193102788796</v>
+        <v>0.9960744559122451</v>
       </c>
       <c r="F25">
-        <v>1.065749118204259</v>
+        <v>0.9972270917789425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036843728702271</v>
+        <v>1.035664031266905</v>
       </c>
       <c r="J25">
-        <v>1.056728897247428</v>
+        <v>1.007337553917321</v>
       </c>
       <c r="K25">
-        <v>1.052065922405376</v>
+        <v>1.015323924755278</v>
       </c>
       <c r="L25">
-        <v>1.060179883316742</v>
+        <v>1.008734018095534</v>
       </c>
       <c r="M25">
-        <v>1.06871040782612</v>
+        <v>1.009868606630478</v>
       </c>
     </row>
   </sheetData>
